--- a/uploads/classes.xlsx
+++ b/uploads/classes.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="6">
   <si>
     <t xml:space="preserve">STT</t>
   </si>
@@ -31,7 +31,13 @@
     <t xml:space="preserve">examination_id</t>
   </si>
   <si>
-    <t xml:space="preserve">subject_id</t>
+    <t xml:space="preserve">subject_code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INT2207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INT2208</t>
   </si>
 </sst>
 </file>
@@ -66,16 +72,16 @@
       <family val="0"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="12"/>
       <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="0"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
       <charset val="1"/>
     </font>
     <font>
-      <sz val="11"/>
-      <name val="Cambria"/>
-      <family val="0"/>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
       <charset val="1"/>
     </font>
   </fonts>
@@ -126,15 +132,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -159,208 +165,206 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E17" activeCellId="0" sqref="E17"/>
+      <selection pane="topLeft" activeCell="D13" activeCellId="0" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="5.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="14.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="9.72"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="14.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="23.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="7" style="0" width="14.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="5.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="14.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="18.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="14.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="23.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="7" style="1" width="14.43"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="n">
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="n">
+      <c r="B2" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="C2" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="E2" s="2"/>
-    </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="n">
+      <c r="C2" s="2" t="n">
+        <v>192</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="3"/>
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="n">
+      <c r="B3" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="C3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="D3" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="E3" s="2"/>
-      <c r="F3" s="3"/>
-    </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C3" s="2" t="n">
+        <v>192</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="3"/>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="4" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="1" t="n">
+      <c r="B4" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="C4" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="D4" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="E4" s="2"/>
-      <c r="F4" s="3"/>
-    </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="C5" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="D5" s="0" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="C6" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="D6" s="0" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C4" s="2" t="n">
+        <v>192</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="3"/>
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="C5" s="2" t="n">
+        <v>192</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="C6" s="2" t="n">
+        <v>192</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="4" t="n">
         <v>6</v>
       </c>
-      <c r="B7" s="1" t="n">
+      <c r="B7" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="C7" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="D7" s="0" t="n">
+      <c r="C7" s="2" t="n">
+        <v>192</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="C8" s="2" t="n">
+        <v>192</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="2" t="n">
         <v>8</v>
       </c>
-    </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B8" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="C8" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="D8" s="0" t="n">
+      <c r="B9" s="2" t="n">
         <v>8</v>
       </c>
-    </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B9" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="C9" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="D9" s="0" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C9" s="2" t="n">
+        <v>192</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="4" t="n">
         <v>9</v>
       </c>
-      <c r="B10" s="1" t="n">
+      <c r="B10" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="C10" s="1" t="n">
+      <c r="C10" s="2" t="n">
+        <v>192</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="D10" s="0" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B11" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C11" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="D11" s="0" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="n">
+      <c r="C11" s="2" t="n">
+        <v>192</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="B12" s="0" t="n">
+      <c r="B12" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="C12" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="D12" s="0" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C12" s="2" t="n">
+        <v>192</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="4" t="n">
         <v>12</v>
       </c>
-      <c r="B13" s="0" t="n">
+      <c r="B13" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="C13" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="D13" s="0" t="n">
-        <v>8</v>
+      <c r="C13" s="2" t="n">
+        <v>192</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
